--- a/Results/Multi_Year/Renewable_Sources_Data.xlsx
+++ b/Results/Multi_Year/Renewable_Sources_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Dropbox\MicroGrids\TESI\MGP_Thesis_Version\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B167B2-260A-4844-908D-9FCA2A5AE4FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF28690-B3F8-42BF-AF8E-6FB394C0E881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5317" yWindow="3146" windowWidth="15951" windowHeight="8230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Source 1</t>
   </si>
@@ -43,13 +43,37 @@
     <t>Units at upgrade 1</t>
   </si>
   <si>
+    <t>Units at upgrade 2</t>
+  </si>
+  <si>
+    <t>Units at upgrade 3</t>
+  </si>
+  <si>
     <t>Total Nominal Capacity at upgrade 1</t>
   </si>
   <si>
+    <t>Total Nominal Capacity at upgrade 2</t>
+  </si>
+  <si>
+    <t>Total Nominal Capacity at upgrade 3</t>
+  </si>
+  <si>
     <t>Investment at upgrade 1</t>
   </si>
   <si>
+    <t>Investment at upgrade 2</t>
+  </si>
+  <si>
+    <t>Investment at upgrade 3</t>
+  </si>
+  <si>
     <t>Yearly O&amp;M Cost at upgrade 1</t>
+  </si>
+  <si>
+    <t>Yearly O&amp;M Cost at upgrade 2</t>
+  </si>
+  <si>
+    <t>Yearly O&amp;M Cost at upgrade 3</t>
   </si>
 </sst>
 </file>
@@ -115,7 +139,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,14 +475,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -518,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>168.24273208569801</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.8159016247211213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -529,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>168242.73208569799</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>144477.0487416336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -540,10 +564,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>789680.91159064078</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>952876.70341813331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -551,10 +575,98 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>15793.618231812819</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>19057.534068362671</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Multi_Year/Renewable_Sources_Data.xlsx
+++ b/Results/Multi_Year/Renewable_Sources_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\Desktop\MicroGridsPy_MYCE_SalvageValue\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF28690-B3F8-42BF-AF8E-6FB394C0E881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F58BF98-D19B-45C4-B2E4-CAE9D4E833FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Source 1</t>
   </si>
@@ -43,37 +43,13 @@
     <t>Units at upgrade 1</t>
   </si>
   <si>
-    <t>Units at upgrade 2</t>
-  </si>
-  <si>
-    <t>Units at upgrade 3</t>
-  </si>
-  <si>
     <t>Total Nominal Capacity at upgrade 1</t>
   </si>
   <si>
-    <t>Total Nominal Capacity at upgrade 2</t>
-  </si>
-  <si>
-    <t>Total Nominal Capacity at upgrade 3</t>
-  </si>
-  <si>
     <t>Investment at upgrade 1</t>
   </si>
   <si>
-    <t>Investment at upgrade 2</t>
-  </si>
-  <si>
-    <t>Investment at upgrade 3</t>
-  </si>
-  <si>
     <t>Yearly O&amp;M Cost at upgrade 1</t>
-  </si>
-  <si>
-    <t>Yearly O&amp;M Cost at upgrade 2</t>
-  </si>
-  <si>
-    <t>Yearly O&amp;M Cost at upgrade 3</t>
   </si>
 </sst>
 </file>
@@ -475,17 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,7 +481,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,18 +492,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.6936999999999998</v>
+        <v>3.6937000000000002</v>
       </c>
       <c r="C4">
-        <v>6.5953499999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.5953499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -537,135 +514,47 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>92.815175083019867</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>92815.175083019873</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>342831.41220415052</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6856.6282440830109</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0</v>
       </c>
     </row>

--- a/Results/Multi_Year/Renewable_Sources_Data.xlsx
+++ b/Results/Multi_Year/Renewable_Sources_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy_MultiYearCapacityExpansion-Multi_Year_Capacity_Expansion\MicroGridsPy_MultiYearCapacityExpansion-Multi_Year_Capacity_Expansion\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF28690-B3F8-42BF-AF8E-6FB394C0E881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D3D63-E354-4372-9286-13C4D31DA3AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5317" yWindow="3146" windowWidth="15951" windowHeight="8230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Source 1</t>
   </si>
@@ -43,37 +43,13 @@
     <t>Units at upgrade 1</t>
   </si>
   <si>
-    <t>Units at upgrade 2</t>
-  </si>
-  <si>
-    <t>Units at upgrade 3</t>
-  </si>
-  <si>
     <t>Total Nominal Capacity at upgrade 1</t>
   </si>
   <si>
-    <t>Total Nominal Capacity at upgrade 2</t>
-  </si>
-  <si>
-    <t>Total Nominal Capacity at upgrade 3</t>
-  </si>
-  <si>
     <t>Investment at upgrade 1</t>
   </si>
   <si>
-    <t>Investment at upgrade 2</t>
-  </si>
-  <si>
-    <t>Investment at upgrade 3</t>
-  </si>
-  <si>
     <t>Yearly O&amp;M Cost at upgrade 1</t>
-  </si>
-  <si>
-    <t>Yearly O&amp;M Cost at upgrade 2</t>
-  </si>
-  <si>
-    <t>Yearly O&amp;M Cost at upgrade 3</t>
   </si>
 </sst>
 </file>
@@ -139,7 +115,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -475,14 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -542,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>45.897096546460141</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -553,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>45897.09654646014</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -564,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>215427.20206011989</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -575,97 +552,9 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4308.5440412023991</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0</v>
       </c>
     </row>
